--- a/src/main/resources/static/excel/moban1.xlsx
+++ b/src/main/resources/static/excel/moban1.xlsx
@@ -12,18 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="2160" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="电脑" sheetId="1" r:id="rId1"/>
+    <sheet name="com" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">电脑!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">com!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1338" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="588">
   <si>
     <t>资产编号</t>
   </si>
@@ -1841,31 +1841,7 @@
     <t>FTL0116-BLD-0000</t>
   </si>
   <si>
-    <r>
-      <t>HS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>0111111</t>
-    </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>资产类型</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>跳线</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>2米</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1893,53 +1869,23 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>信息化</t>
+    <t>HS-OT-00001</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>借用人必须有域账号并且不能错误，设备名称为必填项</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>，报废    填  完好/报废  时间格式是 xxxx.xx.xx，沈丹的资产类型是  开发设备 ，叶航呈管理的资产类型是 信息化 ，向雪管理的资产类型是 仪器设备，有数据的格子必须有边框，否则会报错，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>以下是演示数据，请删除</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>。此表格上传后属增量，不能使用excel上传更改数据库。</t>
-    </r>
+    <t>u盘</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>32G</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设备</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HS-OT-00002</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1952,7 +1898,7 @@
     <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥#,##0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2045,13 +1991,6 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -2085,7 +2024,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -2178,17 +2117,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2350,15 +2278,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2391,6 +2310,15 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2702,7 +2630,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2711,7 +2639,7 @@
     <col min="2" max="2" width="31.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="62" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
@@ -2719,80 +2647,94 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="49" t="s">
-        <v>587</v>
-      </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="51"/>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="47" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="47" t="s">
+      <c r="A2" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="B2" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="C2" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="61">
+        <v>10</v>
+      </c>
+      <c r="F2" s="48" t="s">
         <v>580</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>581</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="46" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="46" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B3" s="48" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" s="48" t="s">
+        <v>585</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="61">
+        <v>10</v>
+      </c>
+      <c r="F3" s="48" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" s="48" t="s">
         <v>581</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11">
-        <v>10</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>583</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>584</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="46" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="K3" s="46" t="s">
         <v>586</v>
@@ -2802,9 +2744,6 @@
   <sortState ref="A2:G407">
     <sortCondition ref="E1"/>
   </sortState>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="300" r:id="rId1"/>
@@ -2836,21 +2775,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="59" t="s">
+      <c r="C1" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
     </row>
     <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
@@ -6885,10 +6824,10 @@
       </c>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="60" t="s">
+      <c r="N115" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="O115" s="60"/>
+      <c r="O115" s="57"/>
     </row>
     <row r="116" spans="2:15" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="7" t="s">
@@ -6921,10 +6860,10 @@
       </c>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="61" t="s">
+      <c r="N116" s="58" t="s">
         <v>443</v>
       </c>
-      <c r="O116" s="62"/>
+      <c r="O116" s="59"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B117" s="7" t="s">
@@ -7477,10 +7416,10 @@
       </c>
       <c r="L131" s="42"/>
       <c r="M131" s="42"/>
-      <c r="N131" s="52" t="s">
+      <c r="N131" s="49" t="s">
         <v>514</v>
       </c>
-      <c r="O131" s="53"/>
+      <c r="O131" s="50"/>
     </row>
     <row r="132" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="7"/>
@@ -7551,10 +7490,10 @@
       <c r="K134" s="33"/>
       <c r="L134" s="33"/>
       <c r="M134" s="42"/>
-      <c r="N134" s="52" t="s">
+      <c r="N134" s="49" t="s">
         <v>520</v>
       </c>
-      <c r="O134" s="53"/>
+      <c r="O134" s="50"/>
     </row>
     <row r="135" spans="2:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="7"/>
@@ -7581,10 +7520,10 @@
       </c>
       <c r="L135" s="42"/>
       <c r="M135" s="42"/>
-      <c r="N135" s="52" t="s">
+      <c r="N135" s="49" t="s">
         <v>522</v>
       </c>
-      <c r="O135" s="53"/>
+      <c r="O135" s="50"/>
     </row>
     <row r="136" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="19" t="s">
@@ -7617,10 +7556,10 @@
       </c>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="54" t="s">
+      <c r="N136" s="51" t="s">
         <v>529</v>
       </c>
-      <c r="O136" s="55"/>
+      <c r="O136" s="52"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
@@ -7900,7 +7839,7 @@
       <c r="N144" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="O144" s="56" t="s">
+      <c r="O144" s="53" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7930,7 +7869,7 @@
       <c r="L145" s="35"/>
       <c r="M145" s="35"/>
       <c r="N145" s="36"/>
-      <c r="O145" s="57"/>
+      <c r="O145" s="54"/>
     </row>
     <row r="146" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="15"/>
@@ -7958,7 +7897,7 @@
       <c r="L146" s="35"/>
       <c r="M146" s="35"/>
       <c r="N146" s="36"/>
-      <c r="O146" s="57"/>
+      <c r="O146" s="54"/>
     </row>
     <row r="147" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="15"/>
@@ -7986,7 +7925,7 @@
       <c r="L147" s="35"/>
       <c r="M147" s="35"/>
       <c r="N147" s="36"/>
-      <c r="O147" s="57"/>
+      <c r="O147" s="54"/>
     </row>
     <row r="148" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="15"/>
@@ -8014,7 +7953,7 @@
       <c r="L148" s="35"/>
       <c r="M148" s="35"/>
       <c r="N148" s="36"/>
-      <c r="O148" s="57"/>
+      <c r="O148" s="54"/>
     </row>
     <row r="149" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="15"/>
@@ -8042,7 +7981,7 @@
       <c r="L149" s="35"/>
       <c r="M149" s="35"/>
       <c r="N149" s="36"/>
-      <c r="O149" s="57"/>
+      <c r="O149" s="54"/>
     </row>
     <row r="150" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="15"/>
@@ -8070,7 +8009,7 @@
       <c r="L150" s="35"/>
       <c r="M150" s="35"/>
       <c r="N150" s="36"/>
-      <c r="O150" s="57"/>
+      <c r="O150" s="54"/>
     </row>
     <row r="151" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="15"/>
@@ -8098,7 +8037,7 @@
       <c r="L151" s="35"/>
       <c r="M151" s="35"/>
       <c r="N151" s="36"/>
-      <c r="O151" s="57"/>
+      <c r="O151" s="54"/>
     </row>
     <row r="152" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="15"/>
@@ -8126,7 +8065,7 @@
       <c r="L152" s="35"/>
       <c r="M152" s="35"/>
       <c r="N152" s="36"/>
-      <c r="O152" s="58"/>
+      <c r="O152" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8145,6 +8084,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <bookSettings>
+    <isFilterShared>1</isFilterShared>
+  </bookSettings>
+</settings>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="4" master=""/>
@@ -8152,7 +8109,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
@@ -8160,7 +8117,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="4"/>
@@ -8168,25 +8125,34 @@
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <bookSettings>
-    <isFilterShared>1</isFilterShared>
-  </bookSettings>
-</settings>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -8195,7 +8161,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -8204,38 +8170,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/main/resources/static/excel/moban1.xlsx
+++ b/src/main/resources/static/excel/moban1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yehangcheng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\vmware\RBAC-0.0.1\src\main\resources\static\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="587">
   <si>
     <t>资产编号</t>
   </si>
@@ -1845,47 +1845,52 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
+    <t>完好</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>32G</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他设备</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020-03-03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CDHS-06-008-2563</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>程控交换机</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>2</t>
+      <t>注意：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>到库时间和借用时间只能是文本格式</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>020.3.15</t>
+      <t>，不能是其他格式否则导入失败，导入数据请删除本行</t>
     </r>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶航呈</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>完好</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS-OT-00001</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>u盘</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>32G</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他设备</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HS-OT-00002</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1898,7 +1903,7 @@
     <numFmt numFmtId="177" formatCode="\¥#,##0.00;[Red]\¥#,##0.00"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,6 +1995,21 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2130,7 +2150,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2269,14 +2289,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2310,15 +2345,6 @@
     </xf>
     <xf numFmtId="178" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2630,7 +2656,7 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -2639,7 +2665,7 @@
     <col min="2" max="2" width="31.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="32" style="2" customWidth="1"/>
     <col min="4" max="4" width="23.125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="48" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="2" customWidth="1"/>
     <col min="7" max="7" width="6.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.25" style="2" customWidth="1"/>
@@ -2647,97 +2673,71 @@
     <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="161.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="49" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E2" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J2" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K2" s="46" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="46" t="s">
+    <row r="3" spans="1:11" s="52" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="53" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>585</v>
+      </c>
+      <c r="C3" s="51" t="s">
+        <v>581</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10">
+        <v>10</v>
+      </c>
+      <c r="F3" s="51" t="s">
         <v>583</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="C2" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="61">
-        <v>10</v>
-      </c>
-      <c r="F2" s="48" t="s">
+      <c r="G3" s="51"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="50" t="s">
         <v>580</v>
       </c>
-      <c r="G2" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="46" t="s">
+      <c r="K3" s="50" t="s">
         <v>582</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="46" t="s">
-        <v>587</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>584</v>
-      </c>
-      <c r="C3" s="48" t="s">
-        <v>585</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="61">
-        <v>10</v>
-      </c>
-      <c r="F3" s="48" t="s">
-        <v>580</v>
-      </c>
-      <c r="G3" s="48" t="s">
-        <v>581</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="46" t="s">
-        <v>582</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>586</v>
       </c>
     </row>
   </sheetData>
@@ -2775,21 +2775,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="42" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
     </row>
     <row r="2" spans="2:15" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2" s="6" t="s">
@@ -6824,10 +6824,10 @@
       </c>
       <c r="L115" s="7"/>
       <c r="M115" s="7"/>
-      <c r="N115" s="57" t="s">
+      <c r="N115" s="62" t="s">
         <v>438</v>
       </c>
-      <c r="O115" s="57"/>
+      <c r="O115" s="62"/>
     </row>
     <row r="116" spans="2:15" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B116" s="7" t="s">
@@ -6860,10 +6860,10 @@
       </c>
       <c r="L116" s="7"/>
       <c r="M116" s="7"/>
-      <c r="N116" s="58" t="s">
+      <c r="N116" s="63" t="s">
         <v>443</v>
       </c>
-      <c r="O116" s="59"/>
+      <c r="O116" s="64"/>
     </row>
     <row r="117" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B117" s="7" t="s">
@@ -7416,10 +7416,10 @@
       </c>
       <c r="L131" s="42"/>
       <c r="M131" s="42"/>
-      <c r="N131" s="49" t="s">
+      <c r="N131" s="54" t="s">
         <v>514</v>
       </c>
-      <c r="O131" s="50"/>
+      <c r="O131" s="55"/>
     </row>
     <row r="132" spans="2:15" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B132" s="7"/>
@@ -7490,10 +7490,10 @@
       <c r="K134" s="33"/>
       <c r="L134" s="33"/>
       <c r="M134" s="42"/>
-      <c r="N134" s="49" t="s">
+      <c r="N134" s="54" t="s">
         <v>520</v>
       </c>
-      <c r="O134" s="50"/>
+      <c r="O134" s="55"/>
     </row>
     <row r="135" spans="2:15" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B135" s="7"/>
@@ -7520,10 +7520,10 @@
       </c>
       <c r="L135" s="42"/>
       <c r="M135" s="42"/>
-      <c r="N135" s="49" t="s">
+      <c r="N135" s="54" t="s">
         <v>522</v>
       </c>
-      <c r="O135" s="50"/>
+      <c r="O135" s="55"/>
     </row>
     <row r="136" spans="2:15" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B136" s="19" t="s">
@@ -7556,10 +7556,10 @@
       </c>
       <c r="L136" s="7"/>
       <c r="M136" s="7"/>
-      <c r="N136" s="51" t="s">
+      <c r="N136" s="56" t="s">
         <v>529</v>
       </c>
-      <c r="O136" s="52"/>
+      <c r="O136" s="57"/>
     </row>
     <row r="137" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B137" s="7" t="s">
@@ -7839,7 +7839,7 @@
       <c r="N144" s="36" t="s">
         <v>566</v>
       </c>
-      <c r="O144" s="53" t="s">
+      <c r="O144" s="58" t="s">
         <v>567</v>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       <c r="L145" s="35"/>
       <c r="M145" s="35"/>
       <c r="N145" s="36"/>
-      <c r="O145" s="54"/>
+      <c r="O145" s="59"/>
     </row>
     <row r="146" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B146" s="15"/>
@@ -7897,7 +7897,7 @@
       <c r="L146" s="35"/>
       <c r="M146" s="35"/>
       <c r="N146" s="36"/>
-      <c r="O146" s="54"/>
+      <c r="O146" s="59"/>
     </row>
     <row r="147" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B147" s="15"/>
@@ -7925,7 +7925,7 @@
       <c r="L147" s="35"/>
       <c r="M147" s="35"/>
       <c r="N147" s="36"/>
-      <c r="O147" s="54"/>
+      <c r="O147" s="59"/>
     </row>
     <row r="148" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B148" s="15"/>
@@ -7953,7 +7953,7 @@
       <c r="L148" s="35"/>
       <c r="M148" s="35"/>
       <c r="N148" s="36"/>
-      <c r="O148" s="54"/>
+      <c r="O148" s="59"/>
     </row>
     <row r="149" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B149" s="15"/>
@@ -7981,7 +7981,7 @@
       <c r="L149" s="35"/>
       <c r="M149" s="35"/>
       <c r="N149" s="36"/>
-      <c r="O149" s="54"/>
+      <c r="O149" s="59"/>
     </row>
     <row r="150" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B150" s="15"/>
@@ -8009,7 +8009,7 @@
       <c r="L150" s="35"/>
       <c r="M150" s="35"/>
       <c r="N150" s="36"/>
-      <c r="O150" s="54"/>
+      <c r="O150" s="59"/>
     </row>
     <row r="151" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B151" s="15"/>
@@ -8037,7 +8037,7 @@
       <c r="L151" s="35"/>
       <c r="M151" s="35"/>
       <c r="N151" s="36"/>
-      <c r="O151" s="54"/>
+      <c r="O151" s="59"/>
     </row>
     <row r="152" spans="2:15" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B152" s="15"/>
@@ -8065,7 +8065,7 @@
       <c r="L152" s="35"/>
       <c r="M152" s="35"/>
       <c r="N152" s="36"/>
-      <c r="O152" s="55"/>
+      <c r="O152" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -8084,10 +8084,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -8095,13 +8091,13 @@
 </settings>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="1" master=""/>
   <rangeList sheetStid="4" master=""/>
@@ -8109,7 +8105,7 @@
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="1" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="4" interlineOnOff="0" interlineColor="0"/>
@@ -8117,7 +8113,7 @@
 </sheetInterline>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="1"/>
   <pixelatorList sheetStid="4"/>
@@ -8125,8 +8121,12 @@
 </pixelators>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -8135,7 +8135,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -8144,7 +8144,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -8153,7 +8153,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -8162,7 +8162,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -8171,7 +8171,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
